--- a/MakeMyTrip/resources/UserData.xlsx
+++ b/MakeMyTrip/resources/UserData.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AADCF95D-1C0D-4C8D-9B00-98B747811BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8530C924-D3D5-43B0-A5C8-291700211A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" activeTab="1" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
   </bookViews>
   <sheets>
     <sheet name="OneWay" sheetId="2" r:id="rId1"/>
     <sheet name="RoundWay" sheetId="1" r:id="rId2"/>
+    <sheet name="MultiWay" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:P17"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
   <si>
     <t>FROM</t>
   </si>
@@ -121,6 +122,42 @@
   </si>
   <si>
     <t>Doctors &amp; Nurses</t>
+  </si>
+  <si>
+    <t>DEPARTURE 1</t>
+  </si>
+  <si>
+    <t>DEPARTURE 2</t>
+  </si>
+  <si>
+    <t>FROM 1</t>
+  </si>
+  <si>
+    <t>TO 1</t>
+  </si>
+  <si>
+    <t>FROM 2</t>
+  </si>
+  <si>
+    <t>TO 2</t>
+  </si>
+  <si>
+    <t>23-August-2023</t>
+  </si>
+  <si>
+    <t>12-July-2023</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
   </si>
 </sst>
 </file>
@@ -610,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8CE669-7733-4337-B5DF-AAD28C5D414F}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -750,4 +787,174 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09382A6C-3A99-4FD0-B342-48FC74A81E62}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MakeMyTrip/resources/UserData.xlsx
+++ b/MakeMyTrip/resources/UserData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8530C924-D3D5-43B0-A5C8-291700211A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B84CCF1A-D793-4BE9-8543-9B67C50F1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
   </bookViews>
   <sheets>
     <sheet name="OneWay" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="MultiWay" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P17"/>
+  <oleSize ref="A1:P18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,9 +142,6 @@
     <t>TO 2</t>
   </si>
   <si>
-    <t>23-August-2023</t>
-  </si>
-  <si>
     <t>12-July-2023</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>Dehradun</t>
+  </si>
+  <si>
+    <t>3-August-2023</t>
   </si>
 </sst>
 </file>
@@ -848,16 +848,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
@@ -889,16 +889,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -921,10 +921,10 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>

--- a/MakeMyTrip/resources/UserData.xlsx
+++ b/MakeMyTrip/resources/UserData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B84CCF1A-D793-4BE9-8543-9B67C50F1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3354E290-7D9F-4AAC-B704-3384A84988C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
   </bookViews>
   <sheets>
     <sheet name="OneWay" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="44">
   <si>
     <t>FROM</t>
   </si>
@@ -142,22 +142,19 @@
     <t>TO 2</t>
   </si>
   <si>
-    <t>12-July-2023</t>
-  </si>
-  <si>
     <t>Jaipur</t>
   </si>
   <si>
     <t>Surat</t>
   </si>
   <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>Dehradun</t>
-  </si>
-  <si>
     <t>3-August-2023</t>
+  </si>
+  <si>
+    <t>29-June-2023</t>
+  </si>
+  <si>
+    <t>13-May-2023</t>
   </si>
 </sst>
 </file>
@@ -794,7 +791,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,16 +845,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
@@ -883,22 +880,22 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -921,22 +918,22 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>25</v>

--- a/MakeMyTrip/resources/UserData.xlsx
+++ b/MakeMyTrip/resources/UserData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3354E290-7D9F-4AAC-B704-3384A84988C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{598D3CA1-D4E2-4413-BEE6-3FCEA9F96991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
   </bookViews>
   <sheets>
     <sheet name="OneWay" sheetId="2" r:id="rId1"/>
@@ -791,7 +791,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -927,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>

--- a/MakeMyTrip/resources/UserData.xlsx
+++ b/MakeMyTrip/resources/UserData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{598D3CA1-D4E2-4413-BEE6-3FCEA9F96991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ECF6DD68-C23C-4E26-849A-C75AB71E15EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
   </bookViews>
   <sheets>
     <sheet name="OneWay" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
   <si>
     <t>FROM</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>13-May-2023</t>
+  </si>
+  <si>
+    <t>2-June-2023</t>
   </si>
 </sst>
 </file>
@@ -510,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A0EEF3-D614-4BA1-9097-074A998D9A66}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -588,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -790,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09382A6C-3A99-4FD0-B342-48FC74A81E62}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/MakeMyTrip/resources/UserData.xlsx
+++ b/MakeMyTrip/resources/UserData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ECF6DD68-C23C-4E26-849A-C75AB71E15EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5E75BA91-CC0C-463E-91C2-DFA06B1F9A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" activeTab="2" xr2:uid="{915E540E-D164-48A7-88C0-EED100793099}"/>
   </bookViews>
   <sheets>
     <sheet name="OneWay" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
   <si>
     <t>FROM</t>
   </si>
@@ -145,19 +145,25 @@
     <t>Jaipur</t>
   </si>
   <si>
-    <t>Surat</t>
-  </si>
-  <si>
     <t>3-August-2023</t>
   </si>
   <si>
-    <t>29-June-2023</t>
-  </si>
-  <si>
-    <t>13-May-2023</t>
-  </si>
-  <si>
-    <t>2-June-2023</t>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>2-May-2023</t>
+  </si>
+  <si>
+    <t>13-June-2023</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>17-June-2023</t>
+  </si>
+  <si>
+    <t>30-June-2023</t>
   </si>
 </sst>
 </file>
@@ -513,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A0EEF3-D614-4BA1-9097-074A998D9A66}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -648,7 +654,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09382A6C-3A99-4FD0-B342-48FC74A81E62}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +863,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
@@ -886,19 +892,19 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -927,7 +933,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
